--- a/data/treated/viagem_conformidade_classificada.xlsx
+++ b/data/treated/viagem_conformidade_classificada.xlsx
@@ -573,15 +573,11 @@
           <t>I</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2023-02-14 03:57:18</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>2023-02-14 04:06:48</t>
-        </is>
+      <c r="N2" s="3" t="n">
+        <v>44971.16479166667</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>44971.17138888889</v>
       </c>
     </row>
     <row r="3">
@@ -640,15 +636,11 @@
           <t>I</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2023-07-14 20:20:34</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2023-07-14 20:32:04</t>
-        </is>
+      <c r="N3" s="3" t="n">
+        <v>45121.84761574074</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>45121.85560185185</v>
       </c>
     </row>
     <row r="4">
@@ -673,7 +665,7 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>D51612</t>
+          <t>B51612</t>
         </is>
       </c>
       <c r="G4" s="3" t="n">
@@ -863,15 +855,11 @@
           <t>V</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2023-06-25 19:33:11</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2023-06-25 19:39:41</t>
-        </is>
+      <c r="N8" s="3" t="n">
+        <v>45102.81471064815</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>45102.81922453704</v>
       </c>
     </row>
     <row r="9">
@@ -890,7 +878,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>775</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -907,7 +895,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Viagem inválida - Não atingiu % de GPS ou trajeto correto</t>
+          <t>Viagem inválida - Não atingiu % de GPS ou trajeto correto para serviço diferente da amostra</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -930,15 +918,11 @@
           <t>I</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2023-07-14 06:59:38</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>2023-07-14 15:27:08</t>
-        </is>
+      <c r="N9" s="3" t="n">
+        <v>45121.29141203704</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>45121.6438425926</v>
       </c>
     </row>
   </sheetData>
